--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2194994.614340099</v>
+        <v>-2197672.49973896</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.95836603255682</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>285.471511363055</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>141.8701959122715</v>
+        <v>230.7871511611226</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>226.1455817683794</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.3642731739558</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.7606266850056</v>
+        <v>160.442493186882</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055927</v>
+        <v>22.79319361026555</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>31.17928826611015</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012339</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>192.7891334611256</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505374</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>96.78074638267616</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>86.9059890879405</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,13 +2713,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477247</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368356</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368356</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1486825368356</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1627777472281</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2273.984266417272</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1921.215611147157</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1547.749852886077</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>1157.610520910266</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>304.7087196946015</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260733</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
         <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>427.1494310484136</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>199.1598801503962</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>743.5029151397866</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>357.7146625415424</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.446123173937</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2309.446123173937</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2309.446123173937</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2309.446123173937</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.306791198125</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1173.832200068228</v>
+        <v>952.1923605134823</v>
       </c>
       <c r="W7" t="n">
-        <v>884.4150300312675</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="X7" t="n">
-        <v>656.4254791332502</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>662.7751904765217</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1805.969860274192</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1584.203244843718</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1295.100377969362</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1295.100377969362</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1005.683207932402</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121625</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769995</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5659,13 +5659,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,43 +5741,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606602</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6868,7 +6868,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380731</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7795,16 +7795,16 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538929454</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>294.8344935184734</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.288636322337378e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>359.5893367403972</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>67.32604715407508</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>42.28074710707989</v>
       </c>
       <c r="W2" t="n">
-        <v>235.6455902361436</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.6528024243195</v>
+        <v>55.73584717546836</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664531</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>25.79551989096916</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711701</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027186</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215495</v>
+        <v>48691.36674215493</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982125</v>
@@ -26320,40 +26320,40 @@
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="G2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="H2" t="n">
         <v>60535.99497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675045</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982119</v>
+      </c>
+      <c r="K2" t="n">
         <v>61578.1327398212</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982119</v>
-      </c>
       <c r="L2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="O2" t="n">
-        <v>61578.13273982125</v>
-      </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,28 +26430,28 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756617</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756615</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756635</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985008</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985007</v>
       </c>
       <c r="L4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985011</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985005</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1197653.239738785</v>
+        <v>-1198082.798605375</v>
       </c>
       <c r="C6" t="n">
         <v>-168085.913392126</v>
       </c>
       <c r="D6" t="n">
-        <v>-327507.1833900179</v>
+        <v>-327507.1833900178</v>
       </c>
       <c r="E6" t="n">
-        <v>-375336.1970112684</v>
+        <v>-375370.9349367038</v>
       </c>
       <c r="F6" t="n">
-        <v>-49923.73520391325</v>
+        <v>-49958.47312934893</v>
       </c>
       <c r="G6" t="n">
-        <v>-49923.73520391328</v>
+        <v>-49958.47312934895</v>
       </c>
       <c r="H6" t="n">
-        <v>-49923.73520391326</v>
+        <v>-49958.47312934895</v>
       </c>
       <c r="I6" t="n">
-        <v>-49923.73520391329</v>
+        <v>-49958.47312934895</v>
       </c>
       <c r="J6" t="n">
-        <v>-245946.9385375587</v>
+        <v>-245946.9385375586</v>
       </c>
       <c r="K6" t="n">
         <v>-58914.04273394427</v>
@@ -26552,16 +26552,16 @@
         <v>-107208.012742135</v>
       </c>
       <c r="M6" t="n">
-        <v>-143969.0706694561</v>
+        <v>-143969.070669456</v>
       </c>
       <c r="N6" t="n">
-        <v>-58914.0427339442</v>
+        <v>-58914.04273394425</v>
       </c>
       <c r="O6" t="n">
-        <v>-78341.76072757595</v>
+        <v>-78341.76072757589</v>
       </c>
       <c r="P6" t="n">
-        <v>-58914.04273394421</v>
+        <v>-58914.04273394425</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203974</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>56.12616824471928</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>113.5953784812694</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>180.730463973332</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6809769545062068</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>80.37701663882237</v>
+        <v>91.69515013694598</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330929</v>
+        <v>228.2019783486364</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>90.18381805424144</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>158.5897370653317</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,10 +29275,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111474</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,10 +34369,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824143</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>630.2591755145964</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366703</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.0916319071262</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38017,10 +38017,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
